--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama1-Itgb8.xlsx
@@ -88,7 +88,7 @@
     <t>Itgb8</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -546,34 +546,34 @@
         <v>0.2728627660176361</v>
       </c>
       <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.027767</v>
+        <v>3.987076</v>
       </c>
       <c r="N2">
-        <v>0.083301</v>
+        <v>11.961228</v>
       </c>
       <c r="O2">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="P2">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="Q2">
-        <v>0.001562328766333333</v>
+        <v>0.2243354891906667</v>
       </c>
       <c r="R2">
-        <v>0.014060958897</v>
+        <v>2.019019402716</v>
       </c>
       <c r="S2">
-        <v>0.0006722574378393651</v>
+        <v>0.07676470769453013</v>
       </c>
       <c r="T2">
-        <v>0.0006722574378393651</v>
+        <v>0.07676470769453013</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.987076</v>
+        <v>10.131229</v>
       </c>
       <c r="N3">
-        <v>11.961228</v>
+        <v>30.393687</v>
       </c>
       <c r="O3">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918803</v>
       </c>
       <c r="P3">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918804</v>
       </c>
       <c r="Q3">
-        <v>0.2243354891906667</v>
+        <v>0.5700403538376666</v>
       </c>
       <c r="R3">
-        <v>2.019019402716</v>
+        <v>5.130363184539</v>
       </c>
       <c r="S3">
-        <v>0.09652974740630332</v>
+        <v>0.1950604485019465</v>
       </c>
       <c r="T3">
-        <v>0.09652974740630332</v>
+        <v>0.1950604485019465</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -670,34 +670,34 @@
         <v>0.2728627660176361</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>7.255512666666667</v>
+        <v>0.05389233333333333</v>
       </c>
       <c r="N4">
-        <v>21.766538</v>
+        <v>0.161677</v>
       </c>
       <c r="O4">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="P4">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="Q4">
-        <v>0.4082362571984445</v>
+        <v>0.003032288063222222</v>
       </c>
       <c r="R4">
-        <v>3.674126314786</v>
+        <v>0.027290592569</v>
       </c>
       <c r="S4">
-        <v>0.1756607611734935</v>
+        <v>0.001037609821159545</v>
       </c>
       <c r="T4">
-        <v>0.1756607611734935</v>
+        <v>0.001037609821159545</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,34 +732,34 @@
         <v>0.7271372339823639</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.027767</v>
+        <v>3.987076</v>
       </c>
       <c r="N5">
-        <v>0.083301</v>
+        <v>11.961228</v>
       </c>
       <c r="O5">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="P5">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="Q5">
-        <v>0.004163365468666667</v>
+        <v>0.5978195173893334</v>
       </c>
       <c r="R5">
-        <v>0.037470289218</v>
+        <v>5.380375656504</v>
       </c>
       <c r="S5">
-        <v>0.001791462503326644</v>
+        <v>0.2045661195740336</v>
       </c>
       <c r="T5">
-        <v>0.001791462503326644</v>
+        <v>0.2045661195740336</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.987076</v>
+        <v>10.131229</v>
       </c>
       <c r="N6">
-        <v>11.961228</v>
+        <v>30.393687</v>
       </c>
       <c r="O6">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918803</v>
       </c>
       <c r="P6">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918804</v>
       </c>
       <c r="Q6">
-        <v>0.5978195173893334</v>
+        <v>1.519069722107333</v>
       </c>
       <c r="R6">
-        <v>5.380375656504</v>
+        <v>13.671627498966</v>
       </c>
       <c r="S6">
-        <v>0.2572369053881796</v>
+        <v>0.5198060440899338</v>
       </c>
       <c r="T6">
-        <v>0.2572369053881796</v>
+        <v>0.5198060440899339</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -856,34 +856,34 @@
         <v>0.7271372339823639</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>7.255512666666667</v>
+        <v>0.05389233333333333</v>
       </c>
       <c r="N7">
-        <v>21.766538</v>
+        <v>0.161677</v>
       </c>
       <c r="O7">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="P7">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="Q7">
-        <v>1.087886732231556</v>
+        <v>0.008080580531777777</v>
       </c>
       <c r="R7">
-        <v>9.790980590084001</v>
+        <v>0.07272522478600001</v>
       </c>
       <c r="S7">
-        <v>0.4681088660908576</v>
+        <v>0.002765070318396325</v>
       </c>
       <c r="T7">
-        <v>0.4681088660908576</v>
+        <v>0.002765070318396325</v>
       </c>
     </row>
   </sheetData>
